--- a/media/reports/Output_Yearly.xlsx
+++ b/media/reports/Output_Yearly.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>akhil</t>
         </is>
       </c>
     </row>
@@ -465,11 +465,7 @@
           <t>Organisation Name</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>org name</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-09-11</t>
         </is>
       </c>
     </row>
@@ -541,61 +537,86 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>jkdjdskh</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Exp-5</t>
+          <t>CN-0001</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>EXPENSE</t>
+          <t>CREDITNOTE</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>CN-1003</t>
+          <t>Exp-1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>CREDITNOTE</t>
+          <t>EXPENSE</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>276</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Exp-2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>EXPENSE</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E12" s="1">
-        <f> SUM(E10:E11)</f>
+      <c r="E13" s="1">
+        <f> SUM(E10:E12)</f>
         <v/>
       </c>
     </row>
